--- a/Proyectos/ControlDeGastos/01. Requerimientos/ControlDeGastos-LevantamientoRequerimientos.xlsx
+++ b/Proyectos/ControlDeGastos/01. Requerimientos/ControlDeGastos-LevantamientoRequerimientos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Presentación" sheetId="1" state="visible" r:id="rId2"/>
@@ -349,7 +349,7 @@
     <t>Sencilla de utilizar, no tener que dar muchos clicks para generar alguna consulta o registro</t>
   </si>
   <si>
-    <t>Mostrar mensajes cuando crea algún registro para no replicarlo nuevamente</t>
+    <t>Se pueden realizar traspasos entre cuentas </t>
   </si>
 </sst>
 </file>
@@ -637,7 +637,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -800,6 +800,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -880,15 +888,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>111600</xdr:colOff>
+      <xdr:colOff>138600</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1225080</xdr:colOff>
+      <xdr:colOff>1251720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>824040</xdr:rowOff>
+      <xdr:rowOff>823680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -901,8 +909,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7981560" y="0"/>
-          <a:ext cx="2574720" cy="824040"/>
+          <a:off x="8008560" y="0"/>
+          <a:ext cx="2574360" cy="823680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -922,15 +930,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2669400</xdr:colOff>
+      <xdr:colOff>2696760</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>824040</xdr:rowOff>
+      <xdr:rowOff>823680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -943,8 +951,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3172680" y="0"/>
-          <a:ext cx="1843200" cy="824040"/>
+          <a:off x="3200040" y="0"/>
+          <a:ext cx="1842840" cy="823680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -966,7 +974,7 @@
   </sheetPr>
   <dimension ref="B1:K23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1429,11 +1437,11 @@
   </sheetPr>
   <dimension ref="A1:IS18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="29" width="1.85204081632653"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="29" width="5.28061224489796"/>
@@ -1918,17 +1926,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="9" t="n">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="41" t="n">
         <v>15</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="38" t="s">
+      <c r="D18" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="41" t="s">
         <v>10</v>
       </c>
     </row>
